--- a/biology/Médecine/CIM-10_Chapitre_13___Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif/CIM-10_Chapitre_13___Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_13___Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif/CIM-10_Chapitre_13___Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le chapitre XIII de la classification internationale des maladies, CIM-10, 1990.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des classes du chapitre 13</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">CIM-10 Chapitre 13 : Maladies du système ostéo-articulaire, des muscles et du tissu conjonctif (M00-M99)
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(M00-M03) Arthropathies infectieuses
-(M00) Arthrites à bactéries pyogènes
+          <t>(M00-M03) Arthropathies infectieuses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(M00) Arthrites à bactéries pyogènes
 (M00.0) Arthrite et polyarthrite à staphylocoques
 (M00.1) Arthrite et polyarthrite à pneumocoques
 (M00.2) Autres arthrites et polyarthrites à streptocoques
@@ -571,9 +590,43 @@
 (M03.0) Arthrite post-méningococcique  (A39.8+)
 (M03.1) Arthropathie syphilitique post-infectieuse
 (M03.2) Autres arthropathies post-infectieuses au cours de maladies classées ailleurs
-(M03.6) Arthropathie réactionnelle au cours d'autres maladies classées ailleurs
-(M05-M14) Polyarthropathies inflammatoires
-(M05) Polyarthrite rhumatoïde séropositive
+(M03.6) Arthropathie réactionnelle au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(M00-M25) Arthropathies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(M05-M14) Polyarthropathies inflammatoires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(M05) Polyarthrite rhumatoïde séropositive
 (M05.0) Syndrome de Felty
 (M05.1) Maladie pulmonaire rhumatoïde (J99.0*)
 (M05.2) Vascularite rhumatoïde
@@ -643,9 +696,43 @@
 (M14.4) Arthropathie au cours d'amylose (E85.-+)
 (M14.5) Arthropathie au cours d'autres maladies endocriniennes, nutritionnelles et métaboliques
 (M14.6) Arthropathie nerveuse
-(M14.8) Arthropathie au cours d'autres maladies précisées classées ailleurs
-(M15-M19) Arthroses
-(M15) Polyarthrose
+(M14.8) Arthropathie au cours d'autres maladies précisées classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(M00-M25) Arthropathies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(M15-M19) Arthroses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(M15) Polyarthrose
 (M15.0) (Ostéo)arthrose primaire généralisée
 (M15.1) Nodosités d'Heberden (avec arthropathie)
 (M15.2) Nodosités de Bouchard (avec arthropathie)
@@ -684,9 +771,43 @@
 (M19.1) Arthrose post-traumatique d'autres articulations
 (M19.2) Arthrose secondaire d'autres articulations
 (M19.8) Autres arthroses précisées
-(M19.9) Arthrose, sans précision
-(M20-M25) Autres affections articulaires
-(M20) Déformations des doigts et des orteils
+(M19.9) Arthrose, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(M00-M25) Arthropathies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(M20-M25) Autres affections articulaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(M20) Déformations des doigts et des orteils
 (M21) Autres déformations des membres
 (M22) Lésion de la rotule
 (M23) Lésion interne du genou
@@ -695,31 +816,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>(M30-M36) Affections disséminées du tissu conjonctif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(M30) Périartérite noueuse et affections apparentées
 (M30.0) Périartérite noueuse
@@ -783,34 +906,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>(M40-M54) Dorsopathies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(M40-M43) Dorsopathies avec déformation
-(M40) Cyphose et lordose
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(M40-M43) Dorsopathies avec déformation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(M40) Cyphose et lordose
 (M40.0) Cyphose posturale
 (M40.1) Autres cyphoses secondaires
 (M40.2) Cyphoses autres et non précisées
@@ -844,59 +972,200 @@
 (M43.5) Autres subluxations vertébrales récidivantes
 (M43.6) Torticolis
 (M43.8) Autres dorsopathies avec déformation précisées
-(M43.9) Dorsopathie avec déformation, sans précision
-(M45-M49) Spondylopathies
-(M45) Spondylarthrite ankylosante
+(M43.9) Dorsopathie avec déformation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(M40-M54) Dorsopathies</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(M45-M49) Spondylopathies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(M45) Spondylarthrite ankylosante
 (M46) Autres spondylopathies inflammatoires
 (M47) Spondylarthrose
 (M48) Autres spondylopathies
-(M49) Spondylopathies au cours de maladies classées ailleurs
-(M50-M54) Autres dorsopathies
-(M50) Atteintes des disques cervicaux
+(M49) Spondylopathies au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(M40-M54) Dorsopathies</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(M50-M54) Autres dorsopathies</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(M50) Atteintes des disques cervicaux
 (M51) Atteintes d'autres disques intervertébraux
 (M53) Autres dorsopathies, non classées ailleurs
 (M54) Dorsalgies</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>(M60-M79) Affections des tissus mous</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(M60-M63) Myopathies
-(M60) Myosite
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(M60-M63) Myopathies</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(M60) Myosite
 (M61) Calcification et ossification de muscles
 (M62) Autres atteintes musculaires
-(M63) Atteintes musculaires au cours de maladies classées ailleurs
-(M65-M68) Atteintes des synoviales et des tendons
-(M65) Synovite et ténosynovite
+(M63) Atteintes musculaires au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>(M60-M79) Affections des tissus mous</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(M65-M68) Atteintes des synoviales et des tendons</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(M65) Synovite et ténosynovite
 (M66) Déchirure spontanée de la synoviale et du tendon
 (M67) Autres atteintes de la synoviale et du tendon
-(M68) Atteintes de la synoviale et du tendon au cours de maladies classées ailleurs
-(M70-M79) Autres affections des tissus mous
-(M70) Affections des tissus mous par sollicitation excessive de l'articulation
+(M68) Atteintes de la synoviale et du tendon au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>(M60-M79) Affections des tissus mous</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(M70-M79) Autres affections des tissus mous</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(M70) Affections des tissus mous par sollicitation excessive de l'articulation
 (M71) Autres bursites
 (M72) Affections fibroblastiques
 (M73) Affections des tissus mous au cours de maladies classées ailleurs
@@ -907,47 +1176,120 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>(M80-M94) Ostéopathies et chondropathies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(M80-M85) Anomalies de la densité et de la structure osseuse
-(M80) Ostéoporose avec fracture pathologique
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(M80-M85) Anomalies de la densité et de la structure osseuse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(M80) Ostéoporose avec fracture pathologique
 (M81) Ostéoporose sans fracture pathologique
 (M82) Ostéoporose au cours de maladies classées ailleurs
 (M83) Ostéomalacie de l'adulte
 (M84) Anomalie de la continuité osseuse
-(M85) Autres anomalies de la densité et de la structure osseuses
-(M86-M90) Autres ostéopathies
-(M86) Ostéomyélite
+(M85) Autres anomalies de la densité et de la structure osseuses</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>(M80-M94) Ostéopathies et chondropathies</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(M86-M90) Autres ostéopathies</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(M86) Ostéomyélite
 (M87) Ostéonécrose
 (M88) Maladie osseuse de Paget (ostéite déformante)
 (M89) Autres maladies osseuses
-(M90) Ostéopathie au cours de maladies classées ailleurs
-(M91-M94) Chondropathies
-(M91) Ostéochondrite juvénile de la hanche et du bassin
+(M90) Ostéopathie au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(M80-M94) Ostéopathies et chondropathies</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(M91-M94) Chondropathies</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(M91) Ostéochondrite juvénile de la hanche et du bassin
 (M91.0) Ostéochondrite juvénile du bassin
 (M91.1) Ostéochondrite juvénile de la tête du fémur (maladie de Legg-Calvé-Perthes)
 (M91.2) Coxa plana
@@ -960,31 +1302,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_13_:_Maladies_du_système_ostéo-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_13_:_Maladies_du_syst%C3%A8me_ost%C3%A9o-articulaire,_des_muscles_et_du_tissu_conjonctif</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>(M95-M99) Autres maladies du système ostéo-articulaire, des muscles et du tissu conjonctif</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>(M95) Autres déformations du système ostéo-articulaire, des muscles et du tissu conjonctif
 (M96) Affections du système ostéo-articulaire et des muscles après un acte à visée diagnostique et thérapeutique, non classées ailleurs
